--- a/dc-dc/buck/figs/connections.xlsx
+++ b/dc-dc/buck/figs/connections.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="V">#NAME?</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
@@ -25,21 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5" count="5">
-  <si>
-    <t>TLP350</t>
-  </si>
-  <si>
-    <t>ARDUINO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>22 Ohm</t>
+    <t>MOSFET</t>
   </si>
 </sst>
 </file>
@@ -68,7 +60,7 @@
       <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="0"/>
       <i val="0"/>
       <u val="none"/>
       <color rgb="FF000000"/>
@@ -246,19 +238,19 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0">
@@ -279,21 +271,27 @@
   <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A2" sqref="A2:I5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="12.713521634615386" customWidth="1"/>
-    <col min="2" max="2" style="0" width="9.142307692307693"/>
-    <col min="3" max="3" style="0" width="13.999158653846155" customWidth="1"/>
-    <col min="4" max="4" style="0" width="12.713521634615386" customWidth="1"/>
-    <col min="5" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="0" width="32.855168269230774" customWidth="1"/>
+    <col min="2" max="2" style="0" width="7.285276442307693" customWidth="1"/>
+    <col min="3" max="3" style="0" width="8.71376201923077" customWidth="1"/>
+    <col min="4" max="4" style="0" width="8.856610576923078" customWidth="1"/>
+    <col min="5" max="6" style="0" width="7.142427884615385" customWidth="1"/>
+    <col min="7" max="7" style="0" width="11.85643028846154" customWidth="1"/>
+    <col min="8" max="8" style="0" width="7.856670673076924" customWidth="1"/>
+    <col min="9" max="9" style="0" width="8.856610576923078" customWidth="1"/>
+    <col min="10" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>TLP350</t>
+        </is>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -321,25 +319,29 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="12">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>ARDUINO</t>
+        </is>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6"/>
     </row>
@@ -349,26 +351,40 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>-5 V</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10 ohm</t>
+        </is>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="inlineStr">
         <is>
-          <t>15 v</t>
+          <t>12 V</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>4</v>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t> G</t>
+        </is>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
@@ -398,8 +414,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -426,8 +441,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
